--- a/2.5.1/四半期別売上報告書.xlsx
+++ b/2.5.1/四半期別売上報告書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katsuhisa.kitano/PycharmProjects/aidemy-python-excel-data/2.4.2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katsuhisa.kitano/PycharmProjects/aidemy-python-excel-data/2.5.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD107B23-A45F-9741-970C-D20AA2187606}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD60F904-3D62-1444-BBBE-747F9DF6EC33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2980" yWindow="800" windowWidth="25200" windowHeight="17200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="売上データ" sheetId="1" r:id="rId1"/>
@@ -345,10 +345,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -359,6 +355,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1526,7 +1526,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1578,10 +1578,10 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -31970,79 +31970,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5EA15C-6E06-FA4B-9238-B3740058327D}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="19" customWidth="1"/>
     <col min="2" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="16">
         <v>2268640</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="16">
         <v>4179120</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="16">
         <v>3754190</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="16">
         <v>5872890</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="16">
         <v>8182760</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>8202490</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="16">
         <v>6679290</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>3249380</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <v>3722750</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>8509700</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>6931020</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <v>11845640</v>
       </c>
     </row>
